--- a/biology/Médecine/Nicolas_Joseph_Hervez_de_Chegoin/Nicolas_Joseph_Hervez_de_Chegoin.xlsx
+++ b/biology/Médecine/Nicolas_Joseph_Hervez_de_Chegoin/Nicolas_Joseph_Hervez_de_Chegoin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Joseph Hervez de Chegoin[1], né le 6 janvier 1791 à Entrains-sur-Nohain[2] et mort le 18 mars 1877 à Paris, est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Joseph Hervez de Chegoin, né le 6 janvier 1791 à Entrains-sur-Nohain et mort le 18 mars 1877 à Paris, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de médecine, il obtient son diplôme à Paris le 5 novembre 1816 avec une thèse sur l'hydrocèle de la tunique vaginale, puis devient chirurgien de l'infirmerie Marie-Thérèse.
 Il est ensuite médecin à la Maison royale de Santé et chirurgien-consultant du roi Louis-Philippe.
 Il est élu membre de l'Académie de Médecine le 3 juin 1823.
-En 1843, il décrit le rhumatisme cérébral[3],  devenue ensuite la méningite rhumatismale[4], entité nosologique mal définie.
+En 1843, il décrit le rhumatisme cérébral,  devenue ensuite la méningite rhumatismale, entité nosologique mal définie.
 À son décès, il était membre de l'Académie de Médecine et de la Société de chirurgie, ancien médecin consultant du Roi et officier de la Légion d'honneur.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Remarques sur la disposition anatomique des polypes de la matrice (1826).
 Recherches sur les causes et le traitement du bégaiement (1830).
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Larousse, "Grand dictionnaire universel du XIXe siècle : français, historique, géographique, mythologique, bibliographique.... T. 9", 1866-1877
 Dossier de Légion d'honneur du docteur de Chegoin.</t>
